--- a/YAS_chair_bill_of_material.xlsx
+++ b/YAS_chair_bill_of_material.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\beppe\Skyracer_Share\Projekt\SimChair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41AF502-00C0-418D-A0AE-A82154BF2D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FF7BBC-D506-478E-9F0A-4FD47ED77C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="3795" windowWidth="29010" windowHeight="15345" xr2:uid="{44586235-B037-4F86-B0CC-423CCBCE707E}"/>
+    <workbookView xWindow="10545" yWindow="2505" windowWidth="29010" windowHeight="15345" xr2:uid="{44586235-B037-4F86-B0CC-423CCBCE707E}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_material.xls" sheetId="1" r:id="rId1"/>
@@ -891,13 +891,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1277,24 +1276,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">

--- a/YAS_chair_bill_of_material.xlsx
+++ b/YAS_chair_bill_of_material.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\beppe\Skyracer_Share\Projekt\SimChair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FF7BBC-D506-478E-9F0A-4FD47ED77C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BF6045-001D-40D6-A7EE-AAD2B567C74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2505" windowWidth="29010" windowHeight="15345" xr2:uid="{44586235-B037-4F86-B0CC-423CCBCE707E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{44586235-B037-4F86-B0CC-423CCBCE707E}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_material.xls" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="130">
   <si>
     <t>Description</t>
   </si>
@@ -130,18 +130,9 @@
     <t>Farnell</t>
   </si>
   <si>
-    <t>SKX, 2 x 0.75mm2, 25m</t>
-  </si>
-  <si>
     <t>35-433</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>RDO, 3 x 1mm2, 10m</t>
-  </si>
-  <si>
     <t>44-838</t>
   </si>
   <si>
@@ -154,9 +145,6 @@
     <t>Capacitor, 10 µF, 16 V, 0805</t>
   </si>
   <si>
-    <t>3D-printed brackets (33 items)</t>
-  </si>
-  <si>
     <t>Remote stick PCB</t>
   </si>
   <si>
@@ -226,9 +214,6 @@
     <t>Set of allen keys</t>
   </si>
   <si>
-    <t>PVC-tube 6 mm x 20 mm</t>
-  </si>
-  <si>
     <t>Wooden glue</t>
   </si>
   <si>
@@ -259,9 +244,6 @@
     <t>Bowden cable 2/6 mm</t>
   </si>
   <si>
-    <t>2 meters</t>
-  </si>
-  <si>
     <t>Electrokit</t>
   </si>
   <si>
@@ -277,9 +259,6 @@
     <t>M4 nut</t>
   </si>
   <si>
-    <t>4.2 m</t>
-  </si>
-  <si>
     <t>Countersunk wooden screw 3.2x20 FXB</t>
   </si>
   <si>
@@ -301,9 +280,6 @@
     <t>For links to hallsensors</t>
   </si>
   <si>
-    <t>M6 x 36 cvarriage bolt</t>
-  </si>
-  <si>
     <t>89-934</t>
   </si>
   <si>
@@ -358,20 +334,89 @@
     <t>Airbrake over-locking</t>
   </si>
   <si>
-    <t>Formplywood base plate</t>
-  </si>
-  <si>
-    <t>Formplywood kit</t>
-  </si>
-  <si>
     <t>Brake wire 1.6mm</t>
+  </si>
+  <si>
+    <t>SKX, 2 x 0.75mm2, 10m</t>
+  </si>
+  <si>
+    <t>RDO, 3 x 1mm2, 5m</t>
+  </si>
+  <si>
+    <t>Main parts</t>
+  </si>
+  <si>
+    <t>Plyfa-kit</t>
+  </si>
+  <si>
+    <t>3D-printed brackets (~45 items)</t>
+  </si>
+  <si>
+    <t>Formplywood base plate, 850x2500x12</t>
+  </si>
+  <si>
+    <t>M6 x 36 carriage bolt</t>
+  </si>
+  <si>
+    <t>Cable to hall sensors</t>
+  </si>
+  <si>
+    <t>Cable to switches</t>
+  </si>
+  <si>
+    <t>For Leonardo</t>
+  </si>
+  <si>
+    <t>To hall sensors</t>
+  </si>
+  <si>
+    <t>To switches</t>
+  </si>
+  <si>
+    <t>For breakout board (Leonardo)</t>
+  </si>
+  <si>
+    <t>For breakout board (switches)</t>
+  </si>
+  <si>
+    <t>For breakout board (hall sensors)</t>
+  </si>
+  <si>
+    <t>Leonardo to PC</t>
+  </si>
+  <si>
+    <t>On the hall sensor PCB</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>4.2 m, chair guide</t>
+  </si>
+  <si>
+    <t>For securing the bike wires</t>
+  </si>
+  <si>
+    <t>Housing the brake wire (2 meters)</t>
+  </si>
+  <si>
+    <t>Silicone tube 6 mm x 20 mm</t>
+  </si>
+  <si>
+    <t>To clean the threads in 3D printed parts</t>
+  </si>
+  <si>
+    <t>Not just the 4 mm IKEA key</t>
+  </si>
+  <si>
+    <t>For pre-drilling so the wood does not crack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +550,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -825,11 +876,9 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="hair">
+      <top/>
+      <bottom style="hair">
         <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,8 +889,10 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="hair">
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -891,13 +942,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1253,11 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB13224-F507-48E2-B33A-03B0F49F22F4}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,33 +1320,35 @@
     <col min="2" max="2" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="42" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1305,812 +1361,919 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C8" s="3">
         <v>6809</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="2">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="2">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="E15" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2">
+        <v>50070</v>
+      </c>
+      <c r="D16" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2">
-        <v>50070</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1154354</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1874659</v>
+        <v>83</v>
       </c>
       <c r="D21" s="2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1154354</v>
       </c>
       <c r="D23" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1874659</v>
       </c>
       <c r="D24" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D25" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="D27" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="2">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="2">
+        <v>25</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="35" spans="1:6" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D35" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="2">
-        <v>41017343</v>
-      </c>
-      <c r="D34" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="2">
-        <v>41017342</v>
-      </c>
-      <c r="D35" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="2">
-        <v>40210022</v>
+        <v>41017343</v>
       </c>
       <c r="D36" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="2">
-        <v>40210012</v>
+        <v>41017342</v>
       </c>
       <c r="D37" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="2">
-        <v>40210011</v>
+        <v>40210022</v>
       </c>
       <c r="D38" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="2">
-        <v>40920011</v>
+        <v>40210012</v>
       </c>
       <c r="D39" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="2">
-        <v>41001167</v>
+        <v>40210011</v>
       </c>
       <c r="D40" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="2">
-        <v>41010580</v>
+        <v>40920011</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C42" s="2">
-        <v>41002450</v>
+        <v>41001167</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C43" s="2">
-        <v>41010579</v>
+        <v>41010580</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C44" s="2">
-        <v>41015492</v>
+        <v>41002450</v>
       </c>
       <c r="D44" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="2">
+        <v>41010579</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="2">
+        <v>41015492</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="2">
         <v>41011403</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D47" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="2">
-        <v>41002040</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="2">
-        <v>41015339</v>
-      </c>
       <c r="D49" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C50" s="2">
+        <v>41002040</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="2">
+        <v>41015339</v>
+      </c>
+      <c r="D51" s="2">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="2">
         <v>41013042</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D52" s="2">
         <v>4</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="2">
-        <v>2319671</v>
-      </c>
-      <c r="D51" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="2">
-        <v>2133070</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C53" s="2">
-        <v>3013453</v>
+        <v>2319671</v>
       </c>
       <c r="D53" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2133070</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="2">
+        <v>3013453</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="2">
+        <v>4</v>
+      </c>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:6" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B57" r:id="rId1" xr:uid="{802D9E2B-5576-4F31-B48B-C0740CC36E46}"/>
-    <hyperlink ref="B58" r:id="rId2" xr:uid="{E4BB5FE3-CFB9-4C12-AE96-10A653B1FE4E}"/>
-    <hyperlink ref="B59" r:id="rId3" xr:uid="{30A1C8EB-B4D3-406E-9EE9-1CE4FE503EDC}"/>
+    <hyperlink ref="B58" r:id="rId1" xr:uid="{802D9E2B-5576-4F31-B48B-C0740CC36E46}"/>
+    <hyperlink ref="B59" r:id="rId2" xr:uid="{E4BB5FE3-CFB9-4C12-AE96-10A653B1FE4E}"/>
+    <hyperlink ref="B60" r:id="rId3" xr:uid="{30A1C8EB-B4D3-406E-9EE9-1CE4FE503EDC}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
